--- a/data/Retirement.xlsx
+++ b/data/Retirement.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\steve\.julia\dev\JPPF.jl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5B7B7-3564-4E3C-AF1A-674217ADA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A168A-6036-4D93-B29E-526A67D46454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29070" yWindow="300" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{73A3B616-E6F2-4AA5-8594-42B189C5D61D}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56778608-C5A6-4CC2-9364-F082D452EBE6}"/>
+    <workbookView xWindow="29625" yWindow="765" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{73A3B616-E6F2-4AA5-8594-42B189C5D61D}"/>
+    <workbookView xWindow="2340" yWindow="1335" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{56778608-C5A6-4CC2-9364-F082D452EBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,11 +1093,14 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>21003</v>
+        <v>25569</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1128,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>66.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,7 +1139,8 @@
         <v>35</v>
       </c>
       <c r="B4" s="1">
-        <v>44562</v>
+        <f>B2+B3*365</f>
+        <v>50024</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
